--- a/biology/Zoologie/Aeshna_tuberculifera/Aeshna_tuberculifera.xlsx
+++ b/biology/Zoologie/Aeshna_tuberculifera/Aeshna_tuberculifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'æschne à tubercules (Aeshna tuberculifera) est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates[1]. Elle a été décrite en 1908 par l'entomologiste canadien Edmund Murton Walker.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'æschne à tubercules (Aeshna tuberculifera) est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates. Elle a été décrite en 1908 par l'entomologiste canadien Edmund Murton Walker.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette æschne mesure entre 71-78 mm de long et ses motifs abdominaux sont habituellement à prédominance bleue. Les bandes thoraciques sont relativement droites et leur coloration est à dominance bleue et se dégrade, vers le bas, en vert pâle. Le mâle et la femelle sont relativement similaires. Les cerques du mâle sont minces et recourbés vers le haut[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette æschne mesure entre 71-78 mm de long et ses motifs abdominaux sont habituellement à prédominance bleue. Les bandes thoraciques sont relativement droites et leur coloration est à dominance bleue et se dégrade, vers le bas, en vert pâle. Le mâle et la femelle sont relativement similaires. Les cerques du mâle sont minces et recourbés vers le haut.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se retrouve à travers le Canada et dans le Nord des États-Unis[3]. Il y a deux populations distinctes en Amérique du Nord : l'une est dans la région de l'île de Vancouver et de la Côte Est et l'autre se retrouve à partir de l'État du Minnesota jusqu'à la côte Est. C'est également cette population qu'on retrouve dans l'est du Canada[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se retrouve à travers le Canada et dans le Nord des États-Unis. Il y a deux populations distinctes en Amérique du Nord : l'une est dans la région de l'île de Vancouver et de la Côte Est et l'autre se retrouve à partir de l'État du Minnesota jusqu'à la côte Est. C'est également cette population qu'on retrouve dans l'est du Canada.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce semble préférer les lacs et les étangs acides[5]. On la retrouve également dans les tourbières et dans les marais[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce semble préférer les lacs et les étangs acides. On la retrouve également dans les tourbières et dans les marais
 </t>
         </is>
       </c>
